--- a/biology/Médecine/Pierre_Magnenat/Pierre_Magnenat.xlsx
+++ b/biology/Médecine/Pierre_Magnenat/Pierre_Magnenat.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre Magnenat, né le 26 mai 1924 à Renens et mort le 13 janvier 2009, est un médecin, écrivain et poète suisse romand.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre Magnenat fait des études de médecine à Lausanne et à Zurich puis une formation post-graduée à Paris et à New York. Sa carrière universitaire et professionnelle se déroule au Centre hospitalier universitaire vaudois (CHUV) à Lausanne où il est chef de service du département de médecine interne de 1982 à 1990, date de son départ à la retraite. Médecin et professeur ordinaire de propédeutique médicale à l'Université de Lausanne (de 1965 à 1990), Pierre Magnenat est également bibliophile. 
 En 1996, Pierre Magnenat publie Bibelot puis Bribes chez Festina Lente (en 1997), Foulées aux éditions Unes en 1998 et enfin Brassée : notations et dessins avec Philippe Cognée aux éditions Virgile en 2003. En 2004, paraît aux éditions de L'Aire La médecine prise aux mots.
@@ -544,7 +558,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>« Pierre Magnenat », sur la base de données des personnalités vaudoises sur la plateforme « Patrinum » de la Bibliothèque cantonale et universitaire de Lausanne.
 Le Temps, 2001/04/05
